--- a/biology/Biochimie/Uracile/Uracile.xlsx
+++ b/biology/Biochimie/Uracile/Uracile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'uracile (usuellement noté "U") est une base nucléique (base pyrimidique) spécifique à l'ARN. On le trouve dans cet acide nucléique sous forme de nucléoside avec l'uridine et de nucléotide avec l'uridine monophosphate ou uridylate. Alors que dans l'ADN, l'adénine s'apparie avec la thymine (notée "T"), c'est l'uracile qui se lie à l'adénine dans l'ARN, par deux liaisons hydrogène.
@@ -514,7 +526,9 @@
           <t>Explication évolutive possible d'un remplacement de U par T dans l'ADN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs avancent l'hypothèse que la désamination spontanée de la cytosine en uracile, aisément détectable dans l'ADN (où U n'est pas normalement présent) par la machinerie cellulaire de réparation des mutations, expliquerait l'utilisation de la base T dans l'ADN. L'ARN (notamment l'ARNm), molécule régulièrement renouvelée dans la cellule, ne voit pas sa séquence contrôlée par des systèmes de réparation, d'où une conservation de la base U dans cette molécule. Dans cette hypothèse, la base U est donc ancestrale, la base T dérivée.
 </t>
